--- a/script_DNRPA/files/pruebaReestructuracion.xlsx
+++ b/script_DNRPA/files/pruebaReestructuracion.xlsx
@@ -393,7 +393,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -402,100 +402,62 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>RRSS / Mes</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>5001 - BELLA VISTA</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>5002 - CORRIENTES N° 1</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>5003 - CURUZU CUATIA</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>5004 - GOYA</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>5005 - MERCEDES</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>5006 - PASO DE LOS LIBRES</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>5007 - SANTO TOME</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>5008 - ESQUINA</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>5009 - ITUZAINGO N° 1</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>5010 - MONTE CASEROS</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>5011 - CORRIENTES N° 2</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>5012 - ALVEAR</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>5013 - CORRIENTES N° 3</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>5014 - CORRIENTES N° 4</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>5015 - SAN COSME</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>5016 - CORRIENTES N° 5</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>5017 - ITUZAINGO N° 2</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
+      <c r="A1" t="n">
+        <v/>
+      </c>
+      <c r="B1" t="n">
+        <v>66</v>
+      </c>
+      <c r="C1" t="n">
+        <v>106</v>
+      </c>
+      <c r="D1" t="n">
+        <v>21</v>
+      </c>
+      <c r="E1" t="n">
+        <v>70</v>
+      </c>
+      <c r="F1" t="n">
+        <v>30</v>
+      </c>
+      <c r="G1" t="n">
+        <v>65</v>
+      </c>
+      <c r="H1" t="n">
+        <v>56</v>
+      </c>
+      <c r="I1" t="n">
+        <v>69</v>
+      </c>
+      <c r="J1" t="n">
+        <v>87</v>
+      </c>
+      <c r="K1" t="n">
+        <v>57</v>
+      </c>
+      <c r="L1" t="n">
+        <v>71</v>
+      </c>
+      <c r="M1" t="n">
+        <v>15</v>
+      </c>
+      <c r="N1" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1" t="n">
+        <v>101</v>
+      </c>
+      <c r="P1" t="n">
+        <v>179</v>
+      </c>
+      <c r="Q1" t="n">
+        <v>123</v>
+      </c>
+      <c r="R1" t="n">
+        <v>76</v>
+      </c>
+      <c r="S1" t="n">
+        <v/>
       </c>
     </row>
     <row r="2">
@@ -503,58 +465,58 @@
         <v>44927</v>
       </c>
       <c r="B2" t="n">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="C2" t="n">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="D2" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E2" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="F2" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="G2" t="n">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="H2" t="n">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="I2" t="n">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="J2" t="n">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="K2" t="n">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="L2" t="n">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="M2" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="N2" t="n">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="O2" t="n">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="P2" t="n">
-        <v>179</v>
+        <v>99</v>
       </c>
       <c r="Q2" t="n">
-        <v>123</v>
+        <v>63</v>
       </c>
       <c r="R2" t="n">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="S2" t="n">
-        <v>1244</v>
+        <v/>
       </c>
     </row>
     <row r="3">
@@ -562,58 +524,58 @@
         <v>44958</v>
       </c>
       <c r="B3" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" t="n">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="D3" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E3" t="n">
+        <v>36</v>
+      </c>
+      <c r="F3" t="n">
+        <v>19</v>
+      </c>
+      <c r="G3" t="n">
+        <v>51</v>
+      </c>
+      <c r="H3" t="n">
+        <v>37</v>
+      </c>
+      <c r="I3" t="n">
+        <v>57</v>
+      </c>
+      <c r="J3" t="n">
+        <v>66</v>
+      </c>
+      <c r="K3" t="n">
         <v>30</v>
       </c>
-      <c r="F3" t="n">
-        <v>17</v>
-      </c>
-      <c r="G3" t="n">
-        <v>52</v>
-      </c>
-      <c r="H3" t="n">
-        <v>20</v>
-      </c>
-      <c r="I3" t="n">
-        <v>29</v>
-      </c>
-      <c r="J3" t="n">
-        <v>48</v>
-      </c>
-      <c r="K3" t="n">
-        <v>29</v>
-      </c>
       <c r="L3" t="n">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="M3" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N3" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="O3" t="n">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="P3" t="n">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="Q3" t="n">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="R3" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="S3" t="n">
-        <v>637</v>
+        <v/>
       </c>
     </row>
     <row r="4">
@@ -621,58 +583,58 @@
         <v>44986</v>
       </c>
       <c r="B4" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C4" t="n">
         <v>69</v>
       </c>
       <c r="D4" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E4" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G4" t="n">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="H4" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="I4" t="n">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="J4" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K4" t="n">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="L4" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="M4" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="N4" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="O4" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P4" t="n">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="Q4" t="n">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="R4" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="S4" t="n">
-        <v>858</v>
+        <v/>
       </c>
     </row>
     <row r="5">
@@ -680,58 +642,58 @@
         <v>45017</v>
       </c>
       <c r="B5" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C5" t="n">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E5" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F5" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G5" t="n">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H5" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I5" t="n">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="J5" t="n">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="K5" t="n">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="L5" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M5" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="N5" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="O5" t="n">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="P5" t="n">
-        <v>94</v>
+        <v>156</v>
       </c>
       <c r="Q5" t="n">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="R5" t="n">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="S5" t="n">
-        <v>779</v>
+        <v/>
       </c>
     </row>
     <row r="6">
@@ -739,58 +701,58 @@
         <v>45047</v>
       </c>
       <c r="B6" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C6" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D6" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E6" t="n">
+        <v>46</v>
+      </c>
+      <c r="F6" t="n">
+        <v>18</v>
+      </c>
+      <c r="G6" t="n">
+        <v>60</v>
+      </c>
+      <c r="H6" t="n">
+        <v>36</v>
+      </c>
+      <c r="I6" t="n">
         <v>50</v>
       </c>
-      <c r="F6" t="n">
-        <v>11</v>
-      </c>
-      <c r="G6" t="n">
-        <v>81</v>
-      </c>
-      <c r="H6" t="n">
-        <v>29</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>58</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
+        <v>60</v>
+      </c>
+      <c r="L6" t="n">
+        <v>55</v>
+      </c>
+      <c r="M6" t="n">
+        <v>13</v>
+      </c>
+      <c r="N6" t="n">
+        <v>48</v>
+      </c>
+      <c r="O6" t="n">
         <v>83</v>
       </c>
-      <c r="K6" t="n">
-        <v>31</v>
-      </c>
-      <c r="L6" t="n">
-        <v>46</v>
-      </c>
-      <c r="M6" t="n">
-        <v>10</v>
-      </c>
-      <c r="N6" t="n">
-        <v>51</v>
-      </c>
-      <c r="O6" t="n">
-        <v>66</v>
-      </c>
       <c r="P6" t="n">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="Q6" t="n">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="R6" t="n">
         <v>70</v>
       </c>
       <c r="S6" t="n">
-        <v>931</v>
+        <v/>
       </c>
     </row>
     <row r="7">
@@ -798,58 +760,58 @@
         <v>45078</v>
       </c>
       <c r="B7" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C7" t="n">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="D7" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E7" t="n">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="F7" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G7" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H7" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I7" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J7" t="n">
+        <v>81</v>
+      </c>
+      <c r="K7" t="n">
+        <v>26</v>
+      </c>
+      <c r="L7" t="n">
+        <v>75</v>
+      </c>
+      <c r="M7" t="n">
+        <v>15</v>
+      </c>
+      <c r="N7" t="n">
         <v>58</v>
       </c>
-      <c r="K7" t="n">
-        <v>60</v>
-      </c>
-      <c r="L7" t="n">
-        <v>55</v>
-      </c>
-      <c r="M7" t="n">
-        <v>13</v>
-      </c>
-      <c r="N7" t="n">
-        <v>48</v>
-      </c>
       <c r="O7" t="n">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="P7" t="n">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="Q7" t="n">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="R7" t="n">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="S7" t="n">
-        <v>923</v>
+        <v/>
       </c>
     </row>
     <row r="8">
@@ -908,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="9">
@@ -967,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="10">
@@ -1026,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="11">
@@ -1085,125 +1047,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>45231</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>45261</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
+        <v/>
       </c>
     </row>
   </sheetData>
